--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2842.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2842.xlsx
@@ -354,7 +354,7 @@
         <v>2.445198757944431</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.361086621315299</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2842.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2842.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170941504724648</v>
+        <v>1.186828970909119</v>
       </c>
       <c r="B1">
-        <v>2.445198757944431</v>
+        <v>2.117293834686279</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.309908390045166</v>
       </c>
       <c r="D1">
-        <v>2.361086621315299</v>
+        <v>2.942328929901123</v>
       </c>
       <c r="E1">
-        <v>1.234140557192914</v>
+        <v>1.216072201728821</v>
       </c>
     </row>
   </sheetData>
